--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bhuvneshwar Kumar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/12/2012</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>15/01/2013</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>19/01/2013</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>11/06/2013</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>15/06/2013</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>20/06/2013</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>05/07/2013</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/10/2013</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>30/10/2013</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>02/11/2013</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>21/11/2013</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1648,7 +1700,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1688,7 +1740,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1748,7 +1799,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1852,7 +1903,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1944,7 +1995,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -1952,7 +2002,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2004,7 +2054,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2044,7 +2094,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>26/02/2014</t>
@@ -2052,7 +2101,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2104,7 +2153,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2144,7 +2193,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -2152,7 +2200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2192,7 +2240,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2240,7 +2287,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -2248,7 +2294,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2288,7 +2334,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>30/08/2014</t>
@@ -2296,7 +2341,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2336,7 +2381,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>02/09/2014</t>
@@ -2344,7 +2388,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2448,7 +2492,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2500,7 +2544,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2540,7 +2584,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>17/10/2014</t>
@@ -2548,7 +2591,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2600,7 +2643,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2652,7 +2695,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2692,7 +2735,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>28/02/2015</t>
@@ -2700,7 +2742,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2752,7 +2794,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2804,7 +2846,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2844,7 +2886,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>10/07/2015</t>
@@ -2852,7 +2893,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3812</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2904,7 +2945,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3815</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2944,7 +2985,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>14/07/2015</t>
@@ -2952,7 +2992,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3817</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3004,7 +3044,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3056,7 +3096,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3096,7 +3136,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>18/10/2015</t>
@@ -3104,7 +3143,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3156,7 +3195,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3208,7 +3247,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3248,7 +3287,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -3256,7 +3294,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3308,7 +3346,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3348,7 +3386,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -3356,7 +3393,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3408,7 +3445,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3448,7 +3485,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>04/06/2017</t>
@@ -3456,7 +3492,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3496,7 +3532,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -3504,7 +3539,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3544,7 +3579,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -3552,7 +3586,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3592,7 +3626,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -3600,7 +3633,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3652,7 +3685,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3692,7 +3725,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -3700,7 +3732,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3740,7 +3772,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>25/06/2017</t>
@@ -3748,7 +3779,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3788,7 +3819,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -3796,7 +3826,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3836,7 +3866,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>20/08/2017</t>
@@ -3844,7 +3873,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3896,7 +3925,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3936,7 +3965,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>27/08/2017</t>
@@ -3944,7 +3972,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3984,7 +4012,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>03/09/2017</t>
@@ -3992,7 +4019,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4044,7 +4071,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4096,7 +4123,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4136,7 +4163,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>24/09/2017</t>
@@ -4144,7 +4170,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4184,7 +4210,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>01/10/2017</t>
@@ -4192,7 +4217,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4244,7 +4269,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4284,7 +4309,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>25/10/2017</t>
@@ -4292,7 +4316,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4332,7 +4356,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -4340,7 +4363,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4392,7 +4415,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4432,7 +4455,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -4440,7 +4462,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4480,7 +4502,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>17/12/2017</t>
@@ -4488,7 +4509,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4528,7 +4549,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>01/02/2018</t>
@@ -4536,7 +4556,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4576,7 +4596,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>04/02/2018</t>
@@ -4584,7 +4603,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4636,7 +4655,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4688,7 +4707,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4740,7 +4759,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4792,7 +4811,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4844,7 +4863,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4884,7 +4903,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>19/09/2018</t>
@@ -4892,7 +4910,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4932,7 +4950,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -4940,7 +4957,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4980,7 +4997,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -4988,7 +5004,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5040,7 +5056,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5092,7 +5108,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5132,7 +5148,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>29/10/2018</t>
@@ -5140,7 +5155,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5180,7 +5195,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>01/11/2018</t>
@@ -5188,7 +5202,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5240,7 +5254,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5280,7 +5294,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>15/01/2019</t>
@@ -5288,7 +5301,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5328,7 +5341,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>18/01/2019</t>
@@ -5336,7 +5348,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5376,7 +5388,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>23/01/2019</t>
@@ -5384,7 +5395,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5424,7 +5435,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>26/01/2019</t>
@@ -5432,7 +5442,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5472,7 +5482,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>28/01/2019</t>
@@ -5480,7 +5489,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5532,7 +5541,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5584,7 +5593,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5636,7 +5645,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5688,7 +5697,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5728,7 +5737,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -5736,7 +5744,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5776,7 +5784,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>09/06/2019</t>
@@ -5784,7 +5791,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5824,7 +5831,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -5832,7 +5838,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5884,7 +5890,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5924,7 +5930,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5984,7 +5989,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6024,7 +6029,6 @@
           <t>112</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -6032,7 +6036,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6084,7 +6088,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6124,7 +6128,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -6132,7 +6135,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6172,7 +6175,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -6180,7 +6182,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6220,7 +6222,6 @@
           <t>116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -6228,7 +6229,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6280,7 +6281,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6320,7 +6321,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6472,7 +6472,6 @@
           <t>121</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -6480,7 +6479,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6519,7 +6518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6541,7 +6540,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6578,7 +6577,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6615,7 +6614,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6652,7 +6651,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6689,7 +6688,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6726,7 +6725,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6763,7 +6762,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6800,7 +6799,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6837,7 +6836,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6874,7 +6873,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6911,7 +6910,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6948,7 +6947,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6985,7 +6984,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7022,7 +7021,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7059,7 +7058,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7096,7 +7095,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7133,7 +7132,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7170,7 +7169,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7207,7 +7206,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7244,7 +7243,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7281,7 +7280,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7318,7 +7317,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7355,7 +7354,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7392,7 +7391,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7429,7 +7428,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7466,7 +7465,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7503,7 +7502,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7540,7 +7539,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7577,7 +7576,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7614,7 +7613,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7651,7 +7650,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7688,7 +7687,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7725,7 +7724,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7762,7 +7761,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7799,7 +7798,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7836,7 +7835,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7873,7 +7872,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7910,7 +7909,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7947,7 +7946,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7984,7 +7983,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8021,7 +8020,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8058,7 +8057,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8095,7 +8094,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8132,7 +8131,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8169,7 +8168,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8206,7 +8205,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8243,7 +8242,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8280,7 +8279,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8317,7 +8316,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3812</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8354,7 +8353,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3815</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8391,7 +8390,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3817</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8428,7 +8427,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8465,7 +8464,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8502,7 +8501,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8539,7 +8538,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8576,7 +8575,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8613,7 +8612,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8650,7 +8649,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8687,7 +8686,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8724,7 +8723,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8761,7 +8760,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8798,7 +8797,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8835,7 +8834,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8872,7 +8871,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8909,7 +8908,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8946,7 +8945,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8983,7 +8982,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9020,7 +9019,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9057,7 +9056,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9094,7 +9093,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9131,7 +9130,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9168,7 +9167,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9205,7 +9204,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9242,7 +9241,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9279,7 +9278,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9316,7 +9315,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9353,7 +9352,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9390,7 +9389,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9427,7 +9426,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9464,7 +9463,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9501,7 +9500,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9538,7 +9537,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9575,7 +9574,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9612,7 +9611,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9649,7 +9648,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9686,7 +9685,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9723,7 +9722,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9760,7 +9759,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9797,7 +9796,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9834,7 +9833,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9871,7 +9870,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9908,7 +9907,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9945,7 +9944,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9982,7 +9981,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10019,7 +10018,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10056,7 +10055,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10093,7 +10092,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10130,7 +10129,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10167,7 +10166,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10204,7 +10203,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10241,7 +10240,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10278,7 +10277,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10315,7 +10314,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10352,7 +10351,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10389,7 +10388,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10426,7 +10425,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10463,7 +10462,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10500,7 +10499,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10537,7 +10536,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10574,7 +10573,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10611,7 +10610,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10648,7 +10647,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -10685,7 +10684,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -10722,7 +10721,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -10759,7 +10758,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -10796,7 +10795,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -10833,7 +10832,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -10870,7 +10869,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -10907,7 +10906,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -10944,7 +10943,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -10981,7 +10980,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -11007,6 +11006,501 @@
       <c r="G121" t="inlineStr">
         <is>
           <t>0/67</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19.41%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11186,15 +11187,394 @@
           <t>4310</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11202,15 +11582,14 @@
           <t>4316</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -11220,17 +11599,12 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11238,27 +11612,14 @@
           <t>4345</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.64%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11268,15 +11629,14 @@
           <t>4350</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11288,13 +11648,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11304,13 +11657,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11318,27 +11664,14 @@
           <t>4360</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -11350,13 +11683,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11364,15 +11690,14 @@
           <t>4454</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11384,13 +11709,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11398,27 +11716,14 @@
           <t>4457</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.91%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -11428,17 +11733,12 @@
           <t>4480</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11446,27 +11746,14 @@
           <t>4482</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.86%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -11478,13 +11765,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11492,17 +11772,12 @@
           <t>4526</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6042,7 +6041,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11187,6 +11186,10 @@
           <t>4310</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11202,6 +11205,9 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11217,6 +11223,9 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11262,6 +11271,9 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11274,6 +11286,10 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11286,6 +11302,10 @@
           <t>4359</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11328,6 +11348,10 @@
           <t>4362</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11343,6 +11367,9 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11355,6 +11382,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11400,6 +11431,9 @@
       <c r="B18" t="n">
         <v>8</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11442,6 +11476,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11457,327 +11495,14 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4248</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4249</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4268</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4270</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4310</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4316</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3991.xlsx
@@ -11020,7 +11020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11063,27 +11063,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4248</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.09%</t>
-        </is>
-      </c>
+          <t>3455</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11093,7 +11079,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -11109,11 +11095,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.38%</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11123,11 +11105,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -11141,7 +11123,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>1.20%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11153,27 +11135,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4270</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>19.41%</t>
-        </is>
-      </c>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11183,10 +11151,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4310</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -11199,11 +11169,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -11217,11 +11187,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -11235,25 +11205,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4345</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>13.72%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -11265,14 +11235,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -11283,10 +11261,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -11299,43 +11279,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11345,7 +11313,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -11361,15 +11329,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4454</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.80%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11379,10 +11359,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -11395,44 +11377,40 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.91%</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
@@ -11443,27 +11421,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.86%</t>
-        </is>
-      </c>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11473,10 +11437,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -11489,16 +11455,2106 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.97%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9.26%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6.84%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3.27%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10.96%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3812</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3815</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5.67%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>11.39%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>9.42%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4.17%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>11.42%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>9</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>10</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>10</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>19.41%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>8</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>8</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>9</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>9</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>9</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
